--- a/Classification_Reports.xlsx
+++ b/Classification_Reports.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alee\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB314604-C8AC-4987-9026-76D5F08BF561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="3645" windowWidth="17310" windowHeight="11385" xr2:uid="{0520E45F-07CA-47CB-80BC-6973DF3E72A9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="19">
   <si>
     <t>Initial Model</t>
   </si>
@@ -68,26 +67,38 @@
     <t>Confusion Matrix:</t>
   </si>
   <si>
-    <t>Bins of 5</t>
+    <t>Testing:</t>
   </si>
   <si>
-    <t>Bins of 4</t>
+    <t>Bottom 6 - Random Forest with Hyperparameter tuning and Feature Selection</t>
   </si>
   <si>
-    <t>First Optimization - Bins of 6</t>
+    <t>Bottom 5</t>
   </si>
   <si>
-    <t>Bins of 3</t>
+    <t>Bottom 4</t>
   </si>
   <si>
-    <t>Testing:</t>
+    <t>Bottom 3</t>
+  </si>
+  <si>
+    <t>First Optimisation - Bottom 6 - Refined Model 1</t>
+  </si>
+  <si>
+    <t>Bottom 6 - SVM</t>
+  </si>
+  <si>
+    <t>Bottom 6 - Neural Network Model</t>
+  </si>
+  <si>
+    <t>Bottom 6 - Gradient Boosting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +106,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +134,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -220,9 +248,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,6 +266,47 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,42 +645,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693BCEA4-076D-4C6B-8B75-37B2CE5E10D0}">
-  <dimension ref="A1:O31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="5" width="9.42578125" customWidth="1"/>
+    <col min="2" max="5" width="9.375" customWidth="1"/>
     <col min="7" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="14"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -626,13 +692,13 @@
       <c r="G3" s="7"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="1"/>
       <c r="E4" s="2"/>
       <c r="F4" s="1"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>2</v>
@@ -660,7 +726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -692,7 +758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -724,7 +790,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -756,13 +822,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="1"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -782,7 +848,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,7 +880,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -846,13 +912,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="1"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
@@ -864,7 +930,7 @@
       <c r="G14" s="7"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>7</v>
       </c>
@@ -886,7 +952,7 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>6</v>
       </c>
@@ -908,7 +974,7 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15" thickBot="1">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -932,49 +998,49 @@
       <c r="I17" s="4"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:15" ht="15" thickBot="1">
+      <c r="A18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
@@ -982,7 +1048,7 @@
       <c r="K20" s="1"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="6" t="s">
         <v>1</v>
       </c>
@@ -999,7 +1065,7 @@
       <c r="L21" s="7"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="1"/>
       <c r="E22" s="2"/>
       <c r="F22" s="1"/>
@@ -1007,7 +1073,7 @@
       <c r="K22" s="1"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
         <v>2</v>
@@ -1048,7 +1114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -1095,7 +1161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -1142,7 +1208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -1189,7 +1255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" s="1"/>
       <c r="E27" s="2"/>
       <c r="F27" s="1"/>
@@ -1197,7 +1263,7 @@
       <c r="K27" s="1"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -1226,7 +1292,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -1273,7 +1339,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -1320,7 +1386,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="15" thickBot="1">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1337,14 +1403,521 @@
       <c r="N31" s="4"/>
       <c r="O31" s="5"/>
     </row>
+    <row r="32" spans="1:15" ht="15" thickBot="1"/>
+    <row r="33" spans="1:15" ht="28.5" customHeight="1">
+      <c r="A33" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="26"/>
+    </row>
+    <row r="34" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A34" s="1"/>
+      <c r="B34" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M34" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="N34" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" s="18">
+        <v>0.82</v>
+      </c>
+      <c r="C35" s="18">
+        <v>1</v>
+      </c>
+      <c r="D35" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="E35" s="2">
+        <v>14</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="17">
+        <v>0.82</v>
+      </c>
+      <c r="H35" s="17">
+        <v>1</v>
+      </c>
+      <c r="I35" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="J35" s="27">
+        <v>14</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="17">
+        <v>0.81</v>
+      </c>
+      <c r="M35" s="17">
+        <v>0.93</v>
+      </c>
+      <c r="N35" s="17">
+        <v>0.87</v>
+      </c>
+      <c r="O35" s="27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="18">
+        <v>1</v>
+      </c>
+      <c r="C36" s="18">
+        <v>0.91</v>
+      </c>
+      <c r="D36" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="E36" s="2">
+        <v>32</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="17">
+        <v>1</v>
+      </c>
+      <c r="H36" s="17">
+        <v>0.91</v>
+      </c>
+      <c r="I36" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="J36" s="2">
+        <v>32</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1</v>
+      </c>
+      <c r="L36" s="17">
+        <v>0.97</v>
+      </c>
+      <c r="M36" s="17">
+        <v>0.91</v>
+      </c>
+      <c r="N36" s="17">
+        <v>0.94</v>
+      </c>
+      <c r="O36" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="18">
+        <v>1</v>
+      </c>
+      <c r="C37" s="18">
+        <v>1</v>
+      </c>
+      <c r="D37" s="18">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>26</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+      <c r="G37" s="17">
+        <v>1</v>
+      </c>
+      <c r="H37" s="18">
+        <v>1</v>
+      </c>
+      <c r="I37" s="18">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2">
+        <v>26</v>
+      </c>
+      <c r="K37" s="1">
+        <v>2</v>
+      </c>
+      <c r="L37" s="17">
+        <v>1</v>
+      </c>
+      <c r="M37" s="17">
+        <v>1</v>
+      </c>
+      <c r="N37" s="17">
+        <v>1</v>
+      </c>
+      <c r="O37" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18">
+        <v>0.96</v>
+      </c>
+      <c r="E39" s="2">
+        <v>72</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18">
+        <v>0.96</v>
+      </c>
+      <c r="J39" s="2">
+        <v>72</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18">
+        <v>0.94</v>
+      </c>
+      <c r="O39" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="22">
+        <v>0.94</v>
+      </c>
+      <c r="C40" s="18">
+        <v>0.97</v>
+      </c>
+      <c r="D40" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="E40" s="2">
+        <v>72</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="17">
+        <v>0.94</v>
+      </c>
+      <c r="H40" s="17">
+        <v>0.97</v>
+      </c>
+      <c r="I40" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="J40" s="27">
+        <v>72</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L40" s="17">
+        <v>0.93</v>
+      </c>
+      <c r="M40" s="17">
+        <v>0.94</v>
+      </c>
+      <c r="N40" s="17">
+        <v>0.93</v>
+      </c>
+      <c r="O40" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15" thickBot="1">
+      <c r="A41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="23">
+        <v>0.97</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="E41" s="5">
+        <v>72</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="28">
+        <v>0.97</v>
+      </c>
+      <c r="H41" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="I41" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="J41" s="29">
+        <v>72</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="28">
+        <v>0.95</v>
+      </c>
+      <c r="M41" s="28">
+        <v>0.94</v>
+      </c>
+      <c r="N41" s="28">
+        <v>0.95</v>
+      </c>
+      <c r="O41" s="5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15" thickBot="1">
+      <c r="B42" s="16"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1"/>
+      <c r="B44" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1">
+        <v>0</v>
+      </c>
+      <c r="B45" s="18">
+        <v>0.74</v>
+      </c>
+      <c r="C45" s="18">
+        <v>1</v>
+      </c>
+      <c r="D45" s="18">
+        <v>0.85</v>
+      </c>
+      <c r="E45" s="2">
+        <v>14</v>
+      </c>
+      <c r="H45" s="16"/>
+      <c r="M45" s="16"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="18">
+        <v>1</v>
+      </c>
+      <c r="C46" s="18">
+        <v>0.84</v>
+      </c>
+      <c r="D46" s="18">
+        <v>0.92</v>
+      </c>
+      <c r="E46" s="2">
+        <v>32</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="M46" s="16"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1">
+        <v>2</v>
+      </c>
+      <c r="B47" s="18">
+        <v>1</v>
+      </c>
+      <c r="C47" s="18">
+        <v>1</v>
+      </c>
+      <c r="D47" s="18">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>26</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="M47" s="16"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="2"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="16"/>
+      <c r="M48" s="15"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18">
+        <v>0.93</v>
+      </c>
+      <c r="E49" s="2">
+        <v>72</v>
+      </c>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="M49" s="16"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="22">
+        <v>0.91</v>
+      </c>
+      <c r="C50" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="D50" s="18">
+        <v>0.92</v>
+      </c>
+      <c r="E50" s="2">
+        <v>72</v>
+      </c>
+      <c r="H50" s="16"/>
+      <c r="I50" s="15"/>
+      <c r="M50" s="16"/>
+    </row>
+    <row r="51" spans="1:13" ht="15" thickBot="1">
+      <c r="A51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="E51" s="5">
+        <v>72</v>
+      </c>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="M51" s="16"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="I52" s="16"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="I53" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F1:J1"/>
+  <mergeCells count="17">
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="K33:O33"/>
+    <mergeCell ref="A43:E43"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="A21:B21"/>
@@ -1352,7 +1925,14 @@
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="K19:O19"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>